--- a/data/trans_camb/P6905-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P6905-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>41,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>44,01</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,94</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>36,35</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,75</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,43; 39,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 65,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,67; 41,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,09; 86,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,5; 86,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,19; 30,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 44,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,05; 63,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,1; 26,7</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>208,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>382,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>290,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>306,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>231,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>383,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,74%</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,25; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,89</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,02</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; 26,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,01; 23,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,06; 15,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,17; 45,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,09; 42,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,54; 20,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 27,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,86; 21,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,94; 14,55</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,43%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,53; 276,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,44; 256,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,87; 171,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,48; 308,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,99; 277,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,48; 131,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 190,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,3; 144,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,48; 110,47</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,97</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,91</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,82</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,97; 5,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,14; 4,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,67; 4,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,18; 27,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,94; 11,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,73; 10,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,61; 12,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,74; 3,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,59; 4,95</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,38%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,27; 22,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,87; 20,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,68; 20,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,29; 98,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,63; 37,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,26; 38,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,84; 45,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,71; 14,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,34; 18,04</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,86</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,33; 15,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,86; 12,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,69; 4,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,2; 3,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,31; 13,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,42; 11,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,08; 8,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,73; 10,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,17; 6,11</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,14%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,12%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,44%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,29%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,7; 64,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,51; 49,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,15; 22,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,09; 10,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,65; 41,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,94; 30,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,99; 27,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,19; 34,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,36; 20,58</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,25</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,75</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,22</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,22</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,79</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,41</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,51; -2,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,3; 5,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,68; 2,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,2; 9,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,15; 19,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,73; 8,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,52; -0,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,03; 7,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,57; 1,25</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,99%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,83%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,13%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,59%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,09%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,68%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,32%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,44%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,05; -8,13</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,04; 16,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,64; 7,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,39; 25,49</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,45; 55,61</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,77; 22,73</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,55; -2,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,91; 19,1</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,49; 5,26</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,67</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,9</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,93; 2,39</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,49; 3,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,16; -0,79</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,16; 9,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; 11,88</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,57; 3,34</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,24; 4,38</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,47; 3,96</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; 0,06</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,5%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,59%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,53%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,25%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,66%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,71%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,62%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,63; 8,85</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,6; 12,35</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,02; -2,96</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,32; 26,44</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,72; 32,49</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,98; 10,06</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,6; 14,44</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,03; 12,94</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,33; 0,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6905-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,7</t>
+          <t>11,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,76</t>
+          <t>9,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41,75</t>
+          <t>23,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>44,01</t>
+          <t>18,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,94</t>
+          <t>15,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,35</t>
+          <t>13,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>3,37</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 39,09</t>
+          <t>-2,52; 25,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 65,28</t>
+          <t>-6,14; 23,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 41,76</t>
+          <t>-12,29; 15,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 86,33</t>
+          <t>0,46; 46,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 86,72</t>
+          <t>-5,7; 43,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,19; 30,82</t>
+          <t>-16,97; 18,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 44,94</t>
+          <t>3,41; 27,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,05; 63,4</t>
+          <t>-0,03; 26,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 26,7</t>
+          <t>-7,38; 14,88</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>208,61%</t>
+          <t>77,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>382,07%</t>
+          <t>64,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>115,55%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>290,66%</t>
+          <t>88,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>306,39%</t>
+          <t>69,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>231,31%</t>
+          <t>85,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>383,14%</t>
+          <t>73,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>81,74%</t>
+          <t>18,7%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,43; 287,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,65; 240,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,64; 162,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 313,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,92; 284,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,65; 136,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,25; —</t>
+          <t>6,62; 214,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,53; —</t>
+          <t>-1,9; 223,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,09; 109,48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>-8,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-6,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,96</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,89</t>
+          <t>-6,97</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,02</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>-6,82</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>-3,91</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 26,08</t>
+          <t>-17,97; 5,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 23,72</t>
+          <t>-20,14; 4,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 15,56</t>
+          <t>-18,63; 5,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 45,49</t>
+          <t>-9,18; 27,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 42,2</t>
+          <t>-25,94; 11,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 20,03</t>
+          <t>-20,49; 10,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 27,6</t>
+          <t>-9,61; 12,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 21,02</t>
+          <t>-16,74; 3,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 14,55</t>
+          <t>-12,72; 5,19</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>66,24%</t>
+          <t>-19,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>-28,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,43%</t>
+          <t>-23,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>65,03%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>-17,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>-12,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>70,07%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41,63%</t>
+          <t>-21,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>-12,12%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,53; 276,15</t>
+          <t>-52,27; 22,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,44; 256,23</t>
+          <t>-58,87; 20,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-76,87; 171,74</t>
+          <t>-56,11; 24,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 308,15</t>
+          <t>-18,29; 98,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,99; 277,66</t>
+          <t>-53,63; 37,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,48; 131,49</t>
+          <t>-40,87; 39,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 190,93</t>
+          <t>-25,84; 45,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 144,02</t>
+          <t>-44,71; 14,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-38,48; 110,47</t>
+          <t>-33,75; 19,64</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,3</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,38</t>
+          <t>-11,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>-14,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,97</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,91</t>
+          <t>-17,97</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,82</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>-10,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 5,09</t>
+          <t>-14,33; 15,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 4,25</t>
+          <t>-14,86; 12,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,67; 4,93</t>
+          <t>-24,81; 4,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 27,5</t>
+          <t>-34,2; 3,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 11,57</t>
+          <t>-23,31; 13,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 10,74</t>
+          <t>-44,37; 4,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 12,22</t>
+          <t>-15,08; 8,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 3,54</t>
+          <t>-11,73; 10,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 4,95</t>
+          <t>-28,49; 1,63</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-19,69%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-28,03%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-24,94%</t>
+          <t>-38,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>-31,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-17,58%</t>
+          <t>-8,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-12,39%</t>
+          <t>-38,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>-11,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-21,15%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-12,38%</t>
+          <t>-29,18%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,27; 22,81</t>
+          <t>-40,7; 64,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,87; 20,13</t>
+          <t>-37,51; 49,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,68; 20,0</t>
+          <t>-70,17; 19,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 98,66</t>
+          <t>-61,09; 10,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,63; 37,12</t>
+          <t>-41,65; 41,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,26; 38,12</t>
+          <t>-79,27; 10,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,84; 45,42</t>
+          <t>-37,99; 27,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,71; 14,02</t>
+          <t>-28,19; 34,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,34; 18,04</t>
+          <t>-67,8; 4,24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-15,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-7,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,21</t>
+          <t>-9,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-14,41</t>
+          <t>-8,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,86</t>
+          <t>-8,67</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-11,79</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>-8,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 15,14</t>
+          <t>-27,51; -2,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 12,14</t>
+          <t>-21,3; 5,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-24,69; 4,37</t>
+          <t>-21,79; 3,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 3,71</t>
+          <t>-25,2; 9,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 13,22</t>
+          <t>-14,15; 19,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 11,51</t>
+          <t>-21,19; 6,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 8,01</t>
+          <t>-21,52; -0,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 10,05</t>
+          <t>-15,03; 7,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 6,11</t>
+          <t>-18,29; 1,29</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>-38,99%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>-19,83%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-36,78%</t>
+          <t>-23,02%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-31,08%</t>
+          <t>-18,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-8,14%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,12%</t>
+          <t>-19,59%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-11,44%</t>
+          <t>-28,68%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>-8,32%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-15,29%</t>
+          <t>-20,05%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,7; 64,28</t>
+          <t>-62,05; -8,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-37,51; 49,9</t>
+          <t>-49,04; 16,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-70,15; 22,13</t>
+          <t>-49,75; 10,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-61,09; 10,68</t>
+          <t>-50,39; 25,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 41,4</t>
+          <t>-27,45; 55,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,94; 30,55</t>
+          <t>-43,19; 17,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 27,44</t>
+          <t>-48,55; -2,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,19; 34,32</t>
+          <t>-32,91; 19,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-44,36; 20,58</t>
+          <t>-40,02; 3,09</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-15,25</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-7,75</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-10,22</t>
+          <t>-7,2</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-8,22</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-8,0</t>
+          <t>-8,66</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-11,79</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-8,41</t>
+          <t>-5,84</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-27,51; -2,88</t>
+          <t>-10,93; 2,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 5,39</t>
+          <t>-9,49; 3,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 2,07</t>
+          <t>-13,82; -0,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 9,86</t>
+          <t>-10,16; 9,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 19,16</t>
+          <t>-7,8; 11,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 8,26</t>
+          <t>-19,36; 0,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-21,52; -0,91</t>
+          <t>-7,24; 4,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 7,07</t>
+          <t>-6,47; 3,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 1,25</t>
+          <t>-11,66; -0,45</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-38,99%</t>
+          <t>-13,5%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-19,83%</t>
+          <t>-9,59%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-26,13%</t>
+          <t>-23,97%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-18,59%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-18,09%</t>
+          <t>-21,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-28,68%</t>
+          <t>-4,66%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-8,32%</t>
+          <t>-2,71%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-20,44%</t>
+          <t>-17,44%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-62,05; -8,13</t>
+          <t>-33,63; 8,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-49,04; 16,35</t>
+          <t>-28,6; 12,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-51,64; 7,3</t>
+          <t>-42,68; -0,51</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-50,39; 25,49</t>
+          <t>-22,32; 26,44</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 55,61</t>
+          <t>-17,72; 32,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,77; 22,73</t>
+          <t>-42,09; 0,35</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-48,55; -2,89</t>
+          <t>-19,6; 14,44</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-32,91; 19,1</t>
+          <t>-18,03; 12,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 5,26</t>
+          <t>-33,76; -2,12</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-4,06</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-2,88</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-7,67</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-6,25</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-1,56</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-4,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-10,93; 2,39</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-9,49; 3,3</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-14,16; -0,79</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 9,7</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-7,8; 11,88</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-14,57; 3,34</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-7,24; 4,38</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-6,47; 3,96</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-9,72; 0,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-13,5%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-9,59%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-25,53%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>0,05%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>1,1%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-15,25%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-4,66%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-2,71%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-14,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-33,63; 8,85</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-28,6; 12,35</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-43,02; -2,96</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-22,32; 26,44</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-17,72; 32,49</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-31,98; 10,06</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-19,6; 14,44</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-18,03; 12,94</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-27,33; 0,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P6905-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 25,05</t>
+          <t>-2,7; 23,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 23,1</t>
+          <t>-5,3; 24,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 15,26</t>
+          <t>-10,99; 17,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 46,29</t>
+          <t>0,21; 47,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 43,17</t>
+          <t>-7,74; 40,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 18,84</t>
+          <t>-17,5; 20,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,41; 27,74</t>
+          <t>3,08; 26,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 26,39</t>
+          <t>1,37; 25,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 14,88</t>
+          <t>-6,59; 14,34</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 287,93</t>
+          <t>-16,58; 251,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,65; 240,37</t>
+          <t>-32,85; 252,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-64,64; 162,94</t>
+          <t>-62,32; 168,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 313,65</t>
+          <t>-6,12; 330,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 284,17</t>
+          <t>-21,79; 267,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,65; 136,71</t>
+          <t>-42,66; 165,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,62; 214,11</t>
+          <t>9,68; 217,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 223,0</t>
+          <t>3,44; 195,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,09; 109,48</t>
+          <t>-30,1; 115,95</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 5,09</t>
+          <t>-16,49; 6,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 4,25</t>
+          <t>-20,85; 2,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 5,6</t>
+          <t>-19,19; 5,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 27,5</t>
+          <t>-9,53; 27,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 11,57</t>
+          <t>-26,76; 10,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 10,62</t>
+          <t>-22,24; 11,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 12,22</t>
+          <t>-9,79; 11,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 3,54</t>
+          <t>-17,39; 3,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 5,19</t>
+          <t>-13,15; 5,0</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,27; 22,81</t>
+          <t>-49,76; 26,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-58,87; 20,13</t>
+          <t>-61,11; 13,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,11; 24,01</t>
+          <t>-58,28; 23,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 98,66</t>
+          <t>-18,32; 97,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,63; 37,12</t>
+          <t>-54,06; 34,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,87; 39,26</t>
+          <t>-43,45; 41,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,84; 45,42</t>
+          <t>-26,31; 38,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,71; 14,02</t>
+          <t>-46,98; 14,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-33,75; 19,64</t>
+          <t>-34,63; 18,65</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 15,14</t>
+          <t>-14,22; 14,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 12,14</t>
+          <t>-13,28; 12,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 4,14</t>
+          <t>-25,35; 4,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 3,71</t>
+          <t>-33,5; 5,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 13,22</t>
+          <t>-21,4; 14,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-44,37; 4,85</t>
+          <t>-47,07; 3,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 8,01</t>
+          <t>-15,42; 8,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 10,05</t>
+          <t>-11,35; 10,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 1,63</t>
+          <t>-26,44; 2,16</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,7; 64,28</t>
+          <t>-39,22; 60,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,51; 49,9</t>
+          <t>-35,85; 55,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,17; 19,66</t>
+          <t>-71,56; 18,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-61,09; 10,68</t>
+          <t>-59,27; 13,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 41,4</t>
+          <t>-38,68; 42,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,27; 10,75</t>
+          <t>-79,8; 10,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 27,44</t>
+          <t>-38,1; 26,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,19; 34,32</t>
+          <t>-28,28; 36,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-67,8; 4,24</t>
+          <t>-66,71; 5,82</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-27,51; -2,88</t>
+          <t>-27,58; -1,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 5,39</t>
+          <t>-19,8; 5,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 3,89</t>
+          <t>-21,1; 4,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 9,86</t>
+          <t>-23,87; 8,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 19,16</t>
+          <t>-15,17; 17,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 6,37</t>
+          <t>-22,8; 5,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-21,52; -0,91</t>
+          <t>-21,69; -2,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 7,07</t>
+          <t>-12,79; 8,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 1,29</t>
+          <t>-18,17; 2,1</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,05; -8,13</t>
+          <t>-63,98; -5,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,04; 16,35</t>
+          <t>-47,96; 16,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,75; 10,86</t>
+          <t>-48,39; 12,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,39; 25,49</t>
+          <t>-48,44; 24,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 55,61</t>
+          <t>-29,16; 47,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,19; 17,43</t>
+          <t>-45,51; 15,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,55; -2,89</t>
+          <t>-48,42; -6,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,91; 19,1</t>
+          <t>-28,37; 22,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,02; 3,09</t>
+          <t>-39,21; 6,05</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 2,39</t>
+          <t>-10,58; 2,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 3,3</t>
+          <t>-9,03; 3,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,82; -0,11</t>
+          <t>-13,92; -0,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 9,7</t>
+          <t>-8,84; 10,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 11,88</t>
+          <t>-8,64; 9,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 0,16</t>
+          <t>-19,64; -0,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 4,38</t>
+          <t>-6,71; 4,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 3,96</t>
+          <t>-6,86; 3,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,66; -0,45</t>
+          <t>-11,82; -1,23</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 8,85</t>
+          <t>-32,03; 9,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 12,35</t>
+          <t>-27,52; 13,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,68; -0,51</t>
+          <t>-42,66; 0,23</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 26,44</t>
+          <t>-19,12; 27,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 32,49</t>
+          <t>-19,22; 27,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,09; 0,35</t>
+          <t>-44,15; -1,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 14,44</t>
+          <t>-18,97; 15,97</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 12,94</t>
+          <t>-19,16; 12,36</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-33,76; -2,12</t>
+          <t>-32,56; -3,69</t>
         </is>
       </c>
     </row>
